--- a/ClosedXML.Tests/Resource/Other/Parts/MultiplePartsHaveNonUniqueRelId-output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/Parts/MultiplePartsHaveNonUniqueRelId-output.xlsx
@@ -397,9 +397,7 @@
     <x:col min="1" max="4" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
-      <x:c r="A1" s="0"/>
-    </x:row>
+    <x:row r="1" spans="1:4"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ClosedXML.Tests/Resource/Other/Parts/MultiplePartsHaveNonUniqueRelId-output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/Parts/MultiplePartsHaveNonUniqueRelId-output.xlsx
@@ -384,7 +384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -409,7 +409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Other/Parts/MultiplePartsHaveNonUniqueRelId-output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/Parts/MultiplePartsHaveNonUniqueRelId-output.xlsx
@@ -7,7 +7,7 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <x:sheet name="Sheet2" sheetId="3" r:id="rId6"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
